--- a/compare/Compare ODM Properties.xlsx
+++ b/compare/Compare ODM Properties.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmidk\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7964F75-AB06-4698-98C5-2E0BDC5F553B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA75A78-1F0A-4C23-982C-4CFA37DAAA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-39765" yWindow="1830" windowWidth="21600" windowHeight="11385" xr2:uid="{96BBE895-3D99-42E0-9C2A-0AEA110E8BD7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96BBE895-3D99-42E0-9C2A-0AEA110E8BD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$F$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$G$95</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="90">
   <si>
     <t>Property</t>
   </si>
@@ -255,9 +255,6 @@
     <t>Visits</t>
   </si>
   <si>
-    <t>Visit Matrix</t>
-  </si>
-  <si>
     <t>Datasets</t>
   </si>
   <si>
@@ -304,13 +301,19 @@
   </si>
   <si>
     <t>Display</t>
+  </si>
+  <si>
+    <t>SharePoint</t>
+  </si>
+  <si>
+    <t>VisitMatrix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,25 +335,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2A3037"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -376,22 +367,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -714,1075 +699,1141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5998799F-5F56-4A31-8E8B-4A4D8760E34C}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="8"/>
+      <c r="D8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>19</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>19</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>19</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>19</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>19</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>19</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F41" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>19</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>19</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>19</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D44" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>19</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>21</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F46" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>21</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F48" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>21</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>21</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F50" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>21</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>21</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F52" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F52" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>21</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F53" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>21</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>21</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F55" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F55" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F56" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F56" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="F57" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="6"/>
+      <c r="F57" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="F58" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="8"/>
+      <c r="F58" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>9</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F59" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F59" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>9</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F60" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F60" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F61" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F61" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>9</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F62" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F62" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>9</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F63" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F63" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>9</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F64" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F64" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>9</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F65" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F65" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>9</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F66" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F66" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>9</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F67" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F67" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>9</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F68" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F68" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>9</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F69" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F69" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>9</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>9</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F71" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F71" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>9</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F72" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F72" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>9</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F73" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F73" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>9</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F74" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>9</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>9</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F76" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F76" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>17</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D77" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>17</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D78" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D78" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>17</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F79" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F79" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>17</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F80" s="6" t="s">
+      <c r="F80" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E81" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E81" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>77</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B84" t="s">
+        <v>73</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" t="s">
+        <v>73</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F84" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>72</v>
-      </c>
-      <c r="B85" t="s">
-        <v>74</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>72</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F86" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>71</v>
       </c>
       <c r="B87" t="s">
-        <v>84</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>71</v>
       </c>
       <c r="B88" t="s">
         <v>27</v>
       </c>
-      <c r="F88" s="6" t="s">
+      <c r="F88" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1791,31 +1842,31 @@
         <v>71</v>
       </c>
       <c r="B89" t="s">
-        <v>81</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>71</v>
       </c>
       <c r="B90" t="s">
-        <v>74</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>71</v>
       </c>
       <c r="B91" t="s">
-        <v>82</v>
-      </c>
-      <c r="F91" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F91" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1824,9 +1875,9 @@
         <v>71</v>
       </c>
       <c r="B92" t="s">
-        <v>83</v>
-      </c>
-      <c r="C92" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1835,9 +1886,9 @@
         <v>71</v>
       </c>
       <c r="B93" t="s">
-        <v>80</v>
-      </c>
-      <c r="C93" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1846,29 +1897,25 @@
         <v>71</v>
       </c>
       <c r="B94" t="s">
-        <v>79</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>71</v>
       </c>
       <c r="B95" t="s">
-        <v>75</v>
-      </c>
-      <c r="F95" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F95" s="5" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:F95" xr:uid="{15AB0A0B-013D-4DEB-9ADA-1F8E2262A77C}">
-    <filterColumn colId="3">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:G95" xr:uid="{5998799F-5F56-4A31-8E8B-4A4D8760E34C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F95">
     <sortCondition ref="A2:A95"/>
     <sortCondition ref="B2:B95"/>
